--- a/src/main/resources/templates/template_report.xlsx
+++ b/src/main/resources/templates/template_report.xlsx
@@ -8,64 +8,144 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jiraclientreport\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9B522435-C77A-47C2-AD64-7258BB4967F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9D202286-EC5C-457A-8206-76DC275A277E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="14628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jira ServiceDesk Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Footer" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>typ</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>create date</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>warranty</t>
-  </si>
-  <si>
-    <t>elapse</t>
-  </si>
-  <si>
-    <t>remaining</t>
-  </si>
-  <si>
-    <t>Akt</t>
-  </si>
-  <si>
-    <t>Total tickets:</t>
-  </si>
-  <si>
-    <t>On time:</t>
-  </si>
-  <si>
-    <t>Date:{Now}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+  <si>
+    <t>АКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">приемки-передачи оказанных в течение месяца </t>
+  </si>
+  <si>
+    <t>от 31 июля 2017г.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Услуг по договору A122023-03 за </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ID заявки</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Дата и время регистрации</t>
+  </si>
+  <si>
+    <t>Гарантийность</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Количество часов отклонения от крайнего срока</t>
+  </si>
+  <si>
+    <t>Оставшееся время</t>
+  </si>
+  <si>
+    <t>июль 2017 г.</t>
+  </si>
+  <si>
+    <t>Количество минут поддержки</t>
+  </si>
+  <si>
+    <t>Количество поступивших заявок:</t>
+  </si>
+  <si>
+    <t>Количество выполненных своевременно:</t>
+  </si>
+  <si>
+    <t>Процент выполненных своевременно</t>
+  </si>
+  <si>
+    <t>Общее количество дней отклонений от крайнего срока</t>
+  </si>
+  <si>
+    <t>Совокупный размер неустойки по всем заявкам, %</t>
+  </si>
+  <si>
+    <t>Стоимость поддержки</t>
+  </si>
+  <si>
+    <t>Общая стоимость в месяц</t>
+  </si>
+  <si>
+    <t>Израсходованное количество минут поддержки</t>
+  </si>
+  <si>
+    <t>процент поступивших по отношению к выполеным</t>
+  </si>
+  <si>
+    <t>сумма в днях по отклонению после крайнего срока</t>
+  </si>
+  <si>
+    <t>сумма из колонки количество минут поддержки</t>
+  </si>
+  <si>
+    <t>Услуги оказаны Исполнителем надлежащим образом, в установленные сроки и надлежащего качества, претензий к Исполнителю Заказчик не имеет.</t>
+  </si>
+  <si>
+    <t>Сумма прописью:</t>
+  </si>
+  <si>
+    <t>Что соответствует:</t>
+  </si>
+  <si>
+    <t>Представитель Заказчика</t>
+  </si>
+  <si>
+    <t>/______________________/</t>
+  </si>
+  <si>
+    <t>Представитель исполнителя</t>
+  </si>
+  <si>
+    <t>июль</t>
+  </si>
+  <si>
+    <t>Общая стоимость оказанных услуг по договору A122023-03 за</t>
+  </si>
+  <si>
+    <t>г. составляет:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -75,24 +155,112 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,11 +269,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -114,37 +289,251 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,20 +547,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A4D7473-FC21-463A-9A20-6305B0B650FE}" name="Таблица2" displayName="Таблица2" ref="A16:I17" totalsRowShown="0">
-  <autoFilter ref="A16:I17" xr:uid="{B0FAF20A-4B18-4342-9AC4-530E15D30F1F}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0A1F5A71-BE8E-407E-8F36-A577E4902FD8}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{18225C35-392C-4E4A-93F0-7E3608445A20}" name="typ"/>
-    <tableColumn id="3" xr3:uid="{9CD9167C-0080-4298-8355-48B3BC33DB35}" name="status"/>
-    <tableColumn id="4" xr3:uid="{159D5C88-84DC-4C6C-A9C6-238182908F3C}" name="create date"/>
-    <tableColumn id="5" xr3:uid="{32014B35-CA6D-4A2D-9E86-9EC36E92A862}" name="description"/>
-    <tableColumn id="6" xr3:uid="{E49235ED-F737-4467-B14A-22938C6E5831}" name="priority"/>
-    <tableColumn id="7" xr3:uid="{178893D9-1E3B-43DE-9342-D6B0AA0DDD31}" name="warranty"/>
-    <tableColumn id="8" xr3:uid="{3A9253AE-195C-44D5-996B-443716811F43}" name="elapse"/>
-    <tableColumn id="9" xr3:uid="{A268EFD6-BD3B-4AEB-8ABD-698372923CA9}" name="remaining"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A4D7473-FC21-463A-9A20-6305B0B650FE}" name="Таблица2" displayName="Таблица2" ref="A16:J17" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A16:J17" xr:uid="{6BDBC001-6F80-436E-B9D8-8E681626678A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0A1F5A71-BE8E-407E-8F36-A577E4902FD8}" name="ID заявки" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{18225C35-392C-4E4A-93F0-7E3608445A20}" name="Описание" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9CD9167C-0080-4298-8355-48B3BC33DB35}" name="Статус" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{159D5C88-84DC-4C6C-A9C6-238182908F3C}" name="Дата и время регистрации" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{32014B35-CA6D-4A2D-9E86-9EC36E92A862}" name="Тип" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E49235ED-F737-4467-B14A-22938C6E5831}" name="Приоритет" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{178893D9-1E3B-43DE-9342-D6B0AA0DDD31}" name="Гарантийность" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{3A9253AE-195C-44D5-996B-443716811F43}" name="Количество часов отклонения от крайнего срока" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A268EFD6-BD3B-4AEB-8ABD-698372923CA9}" name="Оставшееся время" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{098E07C0-C126-42FA-8070-D413B9C5FE17}" name="Количество минут поддержки" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -472,80 +873,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I19"/>
+  <dimension ref="A3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="J16" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -553,4 +1013,165 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB77083F-39EF-4F3F-A94F-24821A169811}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>